--- a/Relatorios/dados_completos.xlsx
+++ b/Relatorios/dados_completos.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,11 +460,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>202515264</v>
+        <v>202529709</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Felicio</t>
+          <t>Felipe Costa</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -472,149 +472,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>a665a45920422f9d417e4867efdc4fb8a04a1f3fff1fa07e998e86f7f7a27ae3</t>
+          <t>03ac674216f3e15c761ee1a5e255f067953623c8b388b4459e13f978d7c846f4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>202516796</v>
+        <v>202583686</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Felipe costa</t>
+          <t>Felipe médico</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>a665a45920422f9d417e4867efdc4fb8a04a1f3fff1fa07e998e86f7f7a27ae3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>202519639</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Feli</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>a665a45920422f9d417e4867efdc4fb8a04a1f3fff1fa07e998e86f7f7a27ae3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>202542545</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Felipe costa</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>a665a45920422f9d417e4867efdc4fb8a04a1f3fff1fa07e998e86f7f7a27ae3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>202554132</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Felipe</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>a665a45920422f9d417e4867efdc4fb8a04a1f3fff1fa07e998e86f7f7a27ae3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>202573120</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Felipe</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>a665a45920422f9d417e4867efdc4fb8a04a1f3fff1fa07e998e86f7f7a27ae3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>202580311</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Felipe cuesta</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>a665a45920422f9d417e4867efdc4fb8a04a1f3fff1fa07e998e86f7f7a27ae3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>202598142</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Felipe</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>a665a45920422f9d417e4867efdc4fb8a04a1f3fff1fa07e998e86f7f7a27ae3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>202599449</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Felipe</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>a665a45920422f9d417e4867efdc4fb8a04a1f3fff1fa07e998e86f7f7a27ae3</t>
         </is>
@@ -631,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,7 +551,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pedagogia</t>
+          <t>Engenharia elétrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Engenharia de Pesca</t>
         </is>
       </c>
     </row>
@@ -692,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,12 +614,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARA1283</t>
+          <t>ARA0923</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Algoritmos e Complexidade</t>
+          <t>Algortimos</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -751,7 +635,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARA2943</t>
+          <t>ARA0234</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -772,7 +656,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARA0289</t>
+          <t>ARA0287</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -788,6 +672,27 @@
       </c>
       <c r="E4" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ARA0023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Calculo 1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,11 +772,11 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>202598142</v>
+        <v>202529709</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ARA1283</t>
+          <t>ARA0234</t>
         </is>
       </c>
     </row>
@@ -886,11 +791,11 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>202599449</v>
+        <v>202529709</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ARA1283</t>
+          <t>ARA0923</t>
         </is>
       </c>
     </row>
@@ -898,51 +803,32 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>202519639</v>
+        <v>202583686</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ARA1283</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Aprovado</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>202554132</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ARA1283</t>
+          <t>ARA0287</t>
         </is>
       </c>
     </row>
